--- a/PUBLICIDAD.xlsx
+++ b/PUBLICIDAD.xlsx
@@ -3231,7 +3231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3241,14 +3241,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173:F192"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="20" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
@@ -7109,7 +7109,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
         <v>419</v>
       </c>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="E383" s="21"/>
     </row>
-    <row r="384" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
         <v>759</v>
       </c>
@@ -10086,7 +10086,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>